--- a/2017-2022 comp results.xlsx
+++ b/2017-2022 comp results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terryzhang/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\jomama_lapsim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA7EB1F3-A387-8342-9583-A85CC8784458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121521AE-F072-4073-BBB8-7BDA6128CE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{7E0C2F69-6560-D24A-8FD6-1B7E33CE1C9D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7E0C2F69-6560-D24A-8FD6-1B7E33CE1C9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tmin Tmax" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
   <si>
     <t>place</t>
   </si>
@@ -66,13 +66,30 @@
   <si>
     <t xml:space="preserve">Tmax </t>
   </si>
+  <si>
+    <t>Min Overall</t>
+  </si>
+  <si>
+    <t>Endurance laptime</t>
+  </si>
+  <si>
+    <t>Times Adjusted for lapsim</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -112,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -120,16 +137,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,16 +477,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3600F42B-D031-0649-BE13-361CE7AF781D}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="16.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B1">
@@ -468,8 +505,17 @@
       <c r="E1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -485,8 +531,16 @@
       <c r="E2">
         <v>4.0949999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <f>MIN(B2:E2)</f>
+        <v>3.6869999999999998</v>
+      </c>
+      <c r="I2">
+        <f>G2*0.9</f>
+        <v>3.3182999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -502,8 +556,16 @@
       <c r="E3">
         <v>5.4649999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="0">MIN(B3:E3)</f>
+        <v>5.0460000000000003</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I4" si="1">G3*0.9</f>
+        <v>4.5414000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -519,8 +581,16 @@
       <c r="E4">
         <v>56.927</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>46.853000000000002</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>42.167700000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -536,9 +606,22 @@
       <c r="E5">
         <v>1490.355</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1490.355</v>
+      </c>
+      <c r="H5">
+        <f>G5/11</f>
+        <v>135.48681818181819</v>
+      </c>
+      <c r="I5">
+        <f>H5*0.85</f>
+        <v>115.16379545454546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B7">
@@ -554,7 +637,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -563,19 +646,27 @@
         <v>6.1695000000000011</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:E8" si="0">1.5*C2</f>
+        <f t="shared" ref="C8:E8" si="2">1.5*C2</f>
         <v>5.5305</v>
       </c>
       <c r="D8">
+        <f t="shared" si="2"/>
+        <v>6.1815000000000007</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>6.1425000000000001</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="0"/>
-        <v>6.1815000000000007</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>6.1425000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5.5305</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:I10" si="3">G8*0.9</f>
+        <v>4.9774500000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -584,19 +675,27 @@
         <v>6.3075000000000001</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:E9" si="1">1.25*C3</f>
+        <f t="shared" ref="C9:E9" si="4">1.25*C3</f>
         <v>6.6287500000000001</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.5925000000000002</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.8312499999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>6.3075000000000001</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>5.6767500000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -605,19 +704,27 @@
         <v>67.936850000000007</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:E10" si="2">1.45*C4</f>
+        <f t="shared" ref="C10:E10" si="5">1.45*C4</f>
         <v>91.6922</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>86.728849999999994</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>82.544150000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>67.936850000000007</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>61.14316500000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -626,16 +733,28 @@
         <v>2174.9202499999997</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:E11" si="3">1.45*C5</f>
+        <f t="shared" ref="C11:E11" si="6">1.45*C5</f>
         <v>2467.8463499999998</v>
       </c>
       <c r="D11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2512.7093500000001</v>
       </c>
       <c r="E11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2161.0147499999998</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>2161.0147499999998</v>
+      </c>
+      <c r="H11">
+        <f>G11/11</f>
+        <v>196.45588636363635</v>
+      </c>
+      <c r="I11">
+        <f>H11*0.85</f>
+        <v>166.98750340909089</v>
       </c>
     </row>
   </sheetData>
@@ -648,15 +767,15 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -685,7 +804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -714,7 +833,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -743,7 +862,7 @@
         <v>197.4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -772,7 +891,7 @@
         <v>82.3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -801,7 +920,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -830,7 +949,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -855,7 +974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -868,7 +987,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -881,25 +1000,25 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>6</v>
@@ -918,9 +1037,9 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -949,7 +1068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -978,7 +1097,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1007,7 +1126,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1036,7 +1155,7 @@
         <v>208.8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1065,7 +1184,7 @@
         <v>181.4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1094,7 +1213,7 @@
         <v>168.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1119,7 +1238,7 @@
         <v>157.1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1144,7 +1263,7 @@
         <v>141.80000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1169,25 +1288,25 @@
         <v>110.9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>6</v>
